--- a/xlsx/COVID_timeline.xlsx
+++ b/xlsx/COVID_timeline.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27031"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10311"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emckclac.sharepoint.com/sites/IoPPNtgh/Shared Documents/1. Catalogue/3. Catalogue content pages/4. Covid-19 page/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/john/Workspace/catalogue-mental-health/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="637" documentId="8_{30A78744-3004-4E90-AE73-C47CCF04AC66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{94717047-B282-4B55-981E-889E404CD9AE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D63A0D9-B5E0-0F48-AC47-E0B3F1F87B40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7620" yWindow="-28300" windowWidth="25600" windowHeight="28300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Covid Timeline" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Covid Timeline'!$A$2:$AMJ$2</definedName>
   </definedNames>
-  <calcPr calcId="191028" concurrentCalc="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="247">
   <si>
     <t>COVID TIMELINE INFO</t>
   </si>
@@ -152,6 +152,7 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">&lt;i&gt;Adults&lt;/i&gt;
 </t>
@@ -161,6 +162,7 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Patient Health Questionnaire (8-item) (PHQ-8)
 Generalised Anxiety Disorder Questionnaire  (7-item) (GAD-7)
@@ -173,6 +175,7 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">&lt;br&gt;&lt;br&gt;
 &lt;i&gt;Children&lt;/i&gt;
@@ -183,6 +186,7 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Revised Children's Anxiety &amp; Depression Scale (RCAD)
 Strengths and Difficulties Questionnaire (SDQ) - Parent Reported</t>
@@ -214,6 +218,7 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">&lt;i&gt;Adults&lt;/i&gt;
 </t>
@@ -223,6 +228,7 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Patient Health Questionnaire (8-item) (PHQ-8)
 Generalised Anxiety Disorder Questionnaire  (7-item) (GAD-7)
@@ -236,6 +242,7 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">&lt;br&gt;&lt;br&gt;
 &lt;i&gt;Children&lt;/i&gt;
@@ -246,6 +253,7 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Revised Children's Anxiety &amp; Depression Scale (RCAD)
 Strengths and Difficulties Questionnaire (SDQ) - Parent Reported
@@ -266,6 +274,7 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">&lt;i&gt;Adults&lt;/i&gt;
 </t>
@@ -275,6 +284,7 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Patient Health Questionnaire (8-item) (PHQ-8)
 Generalised Anxiety Disorder Questionnaire  (7-item) (GAD-7)
@@ -291,6 +301,7 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">&lt;i&gt;Adults&lt;/i&gt;
 </t>
@@ -300,6 +311,7 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Patient Health Questionnaire (8-item) (PHQ-8)
 Generalised Anxiety Disorder Questionnaire  (7-item) (GAD-7)
@@ -548,6 +560,7 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">&lt;i&gt;Core questionnaire&lt;/i&gt;
 </t>
@@ -557,6 +570,7 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>General Health Questionnaire (12-item) (GHQ-12)
 Alcohol use
@@ -1079,9 +1093,6 @@
     <t>The PROTECT Study (Platform for Research Online To Investigate Genetics and Cognition &amp; Ageing)</t>
   </si>
   <si>
-    <t>31/04/2020</t>
-  </si>
-  <si>
     <t>Generalised Anxiety Disorder Assessment (7-item) (GAD-7)
 Patient Health Questionnaire (9-item) (PHQ-9) 
 The Community Assessment of Psychic Experiences-Positive Scale (5 selected items) (CAPE)
@@ -1095,9 +1106,6 @@
   </si>
   <si>
     <t>NICOLA: The Northern Ireland Longitudinal Study of Ageing</t>
-  </si>
-  <si>
-    <t>31/02/2021</t>
   </si>
   <si>
     <t>Generalised Anxiety Disorder Assessment (7-item) (GAD-7)
@@ -1169,7 +1177,7 @@
     <t>NATSAL</t>
   </si>
   <si>
-    <t>National Surveys of Sexual Attitudes and Lifestyles</t>
+    <t>National Surveys of Sexual Attitudes and Lifestyles (NATSAL)</t>
   </si>
   <si>
     <t>Patient Health Questionnaire (2-item) (PHQ-2)
@@ -1191,7 +1199,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1255,11 +1263,13 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1272,6 +1282,7 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1413,9 +1424,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1433,6 +1441,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1717,45 +1728,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B57" sqref="B57"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29.5" style="10" customWidth="1"/>
-    <col min="2" max="2" width="16.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="18.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="14.875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" style="7" customWidth="1"/>
     <col min="6" max="6" width="40.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="26.125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="22.875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="26.1640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="22.83203125" style="2" customWidth="1"/>
     <col min="9" max="9" width="37.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="33.625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="26.625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="10.875" style="4" customWidth="1"/>
-    <col min="13" max="27" width="10.875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="33.6640625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="26.6640625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="10.83203125" style="4" customWidth="1"/>
+    <col min="13" max="27" width="10.83203125" style="2" customWidth="1"/>
     <col min="1024" max="1024" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" ht="15.95" customHeight="1">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-    </row>
-    <row r="2" spans="1:1024" s="9" customFormat="1" ht="24">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+    </row>
+    <row r="2" spans="1:1024" s="9" customFormat="1" ht="26" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
@@ -1807,7 +1818,7 @@
       <c r="AA2" s="1"/>
       <c r="AMJ2"/>
     </row>
-    <row r="3" spans="1:1024" ht="102" customHeight="1">
+    <row r="3" spans="1:1024" ht="102" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>12</v>
       </c>
@@ -1842,7 +1853,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:1024" ht="95.1" customHeight="1">
+    <row r="4" spans="1:1024" ht="95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>21</v>
       </c>
@@ -1877,7 +1888,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:1024" ht="117" customHeight="1">
+    <row r="5" spans="1:1024" ht="117" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>24</v>
       </c>
@@ -1912,7 +1923,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:1024" ht="185.1" customHeight="1">
+    <row r="6" spans="1:1024" ht="185" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>12</v>
       </c>
@@ -1947,7 +1958,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:1024" ht="158.1" customHeight="1">
+    <row r="7" spans="1:1024" ht="158" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>35</v>
       </c>
@@ -1979,7 +1990,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:1024" ht="141.94999999999999" customHeight="1">
+    <row r="8" spans="1:1024" ht="142" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>12</v>
       </c>
@@ -2014,7 +2025,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:1024" ht="110.1" customHeight="1">
+    <row r="9" spans="1:1024" ht="110" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>35</v>
       </c>
@@ -2046,7 +2057,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:1024" ht="132">
+    <row r="10" spans="1:1024" ht="143" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>21</v>
       </c>
@@ -2084,7 +2095,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:1024" ht="132">
+    <row r="11" spans="1:1024" ht="143" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>49</v>
       </c>
@@ -2122,7 +2133,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:1024" ht="120">
+    <row r="12" spans="1:1024" ht="130" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>24</v>
       </c>
@@ -2160,7 +2171,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:1024" ht="108" customHeight="1">
+    <row r="13" spans="1:1024" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>52</v>
       </c>
@@ -2195,7 +2206,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:1024" ht="108" customHeight="1">
+    <row r="14" spans="1:1024" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>24</v>
       </c>
@@ -2230,7 +2241,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:1024" ht="132">
+    <row r="15" spans="1:1024" ht="143" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>21</v>
       </c>
@@ -2268,7 +2279,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:1024" ht="132">
+    <row r="16" spans="1:1024" ht="143" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>49</v>
       </c>
@@ -2306,7 +2317,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="93.95" customHeight="1">
+    <row r="17" spans="1:12" ht="94" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>24</v>
       </c>
@@ -2344,7 +2355,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="132">
+    <row r="18" spans="1:12" ht="143" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
         <v>21</v>
       </c>
@@ -2382,7 +2393,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="132">
+    <row r="19" spans="1:12" ht="143" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
         <v>49</v>
       </c>
@@ -2420,7 +2431,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="93" customHeight="1">
+    <row r="20" spans="1:12" ht="93" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
         <v>24</v>
       </c>
@@ -2458,7 +2469,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="132">
+    <row r="21" spans="1:12" ht="143" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
         <v>21</v>
       </c>
@@ -2496,7 +2507,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="132">
+    <row r="22" spans="1:12" ht="143" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
         <v>49</v>
       </c>
@@ -2534,7 +2545,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="125.25">
+    <row r="23" spans="1:12" ht="130" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
         <v>24</v>
       </c>
@@ -2572,7 +2583,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="132">
+    <row r="24" spans="1:12" ht="143" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
         <v>21</v>
       </c>
@@ -2610,7 +2621,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="132">
+    <row r="25" spans="1:12" ht="143" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
         <v>49</v>
       </c>
@@ -2648,7 +2659,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="105" customHeight="1">
+    <row r="26" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
         <v>24</v>
       </c>
@@ -2686,7 +2697,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="96">
+    <row r="27" spans="1:12" ht="104" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
         <v>12</v>
       </c>
@@ -2718,7 +2729,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="96">
+    <row r="28" spans="1:12" ht="104" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
         <v>52</v>
       </c>
@@ -2750,7 +2761,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="96">
+    <row r="29" spans="1:12" ht="104" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
         <v>35</v>
       </c>
@@ -2782,7 +2793,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="96">
+    <row r="30" spans="1:12" ht="104" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
         <v>88</v>
       </c>
@@ -2814,7 +2825,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="60">
+    <row r="31" spans="1:12" ht="65" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
         <v>12</v>
       </c>
@@ -2846,7 +2857,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="60">
+    <row r="32" spans="1:12" ht="65" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
         <v>88</v>
       </c>
@@ -2878,7 +2889,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="1:27" ht="84">
+    <row r="33" spans="1:27" ht="104" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
         <v>96</v>
       </c>
@@ -2910,7 +2921,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="34" spans="1:27" ht="84">
+    <row r="34" spans="1:27" ht="104" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
         <v>96</v>
       </c>
@@ -2942,7 +2953,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="35" spans="1:27" ht="88.5">
+    <row r="35" spans="1:27" ht="104" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
         <v>98</v>
       </c>
@@ -2974,7 +2985,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="36" spans="1:27" ht="88.5">
+    <row r="36" spans="1:27" ht="104" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
         <v>98</v>
       </c>
@@ -3006,7 +3017,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="37" spans="1:27" ht="88.5">
+    <row r="37" spans="1:27" ht="104" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
         <v>100</v>
       </c>
@@ -3038,7 +3049,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="38" spans="1:27" ht="88.5">
+    <row r="38" spans="1:27" ht="104" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
         <v>102</v>
       </c>
@@ -3070,7 +3081,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="39" spans="1:27" ht="88.5">
+    <row r="39" spans="1:27" ht="91" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
         <v>52</v>
       </c>
@@ -3105,7 +3116,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="40" spans="1:27" ht="88.5">
+    <row r="40" spans="1:27" ht="91" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
         <v>49</v>
       </c>
@@ -3140,7 +3151,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="41" spans="1:27" ht="68.099999999999994" customHeight="1">
+    <row r="41" spans="1:27" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
         <v>12</v>
       </c>
@@ -3175,7 +3186,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="42" spans="1:27" ht="138">
+    <row r="42" spans="1:27" ht="143" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
         <v>12</v>
       </c>
@@ -3207,7 +3218,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="43" spans="1:27" ht="138">
+    <row r="43" spans="1:27" ht="143" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
         <v>128</v>
       </c>
@@ -3239,7 +3250,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="44" spans="1:27" s="19" customFormat="1" ht="138">
+    <row r="44" spans="1:27" s="19" customFormat="1" ht="143" x14ac:dyDescent="0.2">
       <c r="A44" s="14" t="s">
         <v>52</v>
       </c>
@@ -3288,7 +3299,7 @@
       <c r="Z44" s="16"/>
       <c r="AA44" s="16"/>
     </row>
-    <row r="45" spans="1:27" ht="238.5">
+    <row r="45" spans="1:27" ht="247" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
         <v>12</v>
       </c>
@@ -3323,7 +3334,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="46" spans="1:27" ht="125.25">
+    <row r="46" spans="1:27" ht="130" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
         <v>128</v>
       </c>
@@ -3358,7 +3369,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="47" spans="1:27" ht="188.25">
+    <row r="47" spans="1:27" ht="195" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
         <v>141</v>
       </c>
@@ -3393,7 +3404,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="48" spans="1:27" ht="175.5">
+    <row r="48" spans="1:27" ht="182" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
         <v>128</v>
       </c>
@@ -3426,7 +3437,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="175.5">
+    <row r="49" spans="1:12" ht="182" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
         <v>35</v>
       </c>
@@ -3456,7 +3467,7 @@
       </c>
       <c r="J49" s="8"/>
     </row>
-    <row r="50" spans="1:12" ht="175.5">
+    <row r="50" spans="1:12" ht="182" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
         <v>24</v>
       </c>
@@ -3486,7 +3497,7 @@
       </c>
       <c r="J50" s="8"/>
     </row>
-    <row r="51" spans="1:12" ht="132">
+    <row r="51" spans="1:12" ht="143" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
         <v>21</v>
       </c>
@@ -3524,7 +3535,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="132">
+    <row r="52" spans="1:12" ht="143" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
         <v>49</v>
       </c>
@@ -3562,7 +3573,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="120">
+    <row r="53" spans="1:12" ht="130" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
         <v>24</v>
       </c>
@@ -3600,7 +3611,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="117.95" customHeight="1">
+    <row r="54" spans="1:12" ht="118" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
         <v>21</v>
       </c>
@@ -3632,7 +3643,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="120">
+    <row r="55" spans="1:12" ht="130" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
         <v>12</v>
       </c>
@@ -3664,7 +3675,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="125.25">
+    <row r="56" spans="1:12" ht="130" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
         <v>128</v>
       </c>
@@ -3696,7 +3707,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="77.099999999999994" customHeight="1">
+    <row r="57" spans="1:12" ht="77" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
         <v>128</v>
       </c>
@@ -3731,7 +3742,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="402">
+    <row r="58" spans="1:12" ht="404" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
         <v>128</v>
       </c>
@@ -3763,7 +3774,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="24">
+    <row r="59" spans="1:12" ht="39" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
         <v>35</v>
       </c>
@@ -3792,7 +3803,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="75.75">
+    <row r="60" spans="1:12" ht="78" x14ac:dyDescent="0.2">
       <c r="A60" s="11" t="s">
         <v>128</v>
       </c>
@@ -3821,7 +3832,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="60">
+    <row r="61" spans="1:12" ht="65" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
         <v>21</v>
       </c>
@@ -3850,7 +3861,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="72">
+    <row r="62" spans="1:12" ht="78" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
         <v>128</v>
       </c>
@@ -3879,7 +3890,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="88.5">
+    <row r="63" spans="1:12" ht="91" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
         <v>88</v>
       </c>
@@ -3908,7 +3919,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="60">
+    <row r="64" spans="1:12" ht="65" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
         <v>35</v>
       </c>
@@ -3937,7 +3948,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="120">
+    <row r="65" spans="1:11" ht="130" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
         <v>24</v>
       </c>
@@ -3966,7 +3977,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="200.25">
+    <row r="66" spans="1:11" ht="208" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
         <v>88</v>
       </c>
@@ -3995,7 +4006,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
         <v>205</v>
       </c>
@@ -4024,7 +4035,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="175.5">
+    <row r="68" spans="1:11" ht="195" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
         <v>207</v>
       </c>
@@ -4053,7 +4064,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="213.75">
+    <row r="69" spans="1:11" ht="234" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
         <v>88</v>
       </c>
@@ -4082,7 +4093,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="36">
+    <row r="70" spans="1:11" ht="39" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
         <v>49</v>
       </c>
@@ -4111,7 +4122,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="75.75">
+    <row r="71" spans="1:11" ht="78" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
         <v>49</v>
       </c>
@@ -4140,7 +4151,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="62.25">
+    <row r="72" spans="1:11" ht="78" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
         <v>216</v>
       </c>
@@ -4169,7 +4180,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="72">
+    <row r="73" spans="1:11" ht="78" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
         <v>12</v>
       </c>
@@ -4182,11 +4193,11 @@
       <c r="D73" s="7">
         <v>43922</v>
       </c>
-      <c r="E73" s="7" t="s">
+      <c r="E73" s="7">
+        <v>43930</v>
+      </c>
+      <c r="F73" s="2" t="s">
         <v>220</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>221</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>84</v>
@@ -4198,44 +4209,44 @@
         <v>194</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="48">
+    <row r="74" spans="1:11" ht="52" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="B74" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="C74" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>224</v>
       </c>
       <c r="D74" s="7">
         <v>44228</v>
       </c>
-      <c r="E74" s="7" t="s">
-        <v>225</v>
+      <c r="E74" s="7">
+        <v>44255</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>84</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I74" s="2" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="48">
+    <row r="75" spans="1:11" ht="52" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
         <v>21</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D75" s="7">
         <v>43952</v>
@@ -4244,7 +4255,7 @@
         <v>43983</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>84</v>
@@ -4256,9 +4267,9 @@
         <v>194</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="188.25">
+    <row r="76" spans="1:11" ht="195" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>134</v>
@@ -4273,13 +4284,13 @@
         <v>44348</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>84</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="I76" s="2" t="s">
         <v>194</v>
@@ -4288,15 +4299,15 @@
         <v>138</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="24">
+    <row r="77" spans="1:11" ht="26" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
         <v>128</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D77" s="7">
         <v>44013</v>
@@ -4305,7 +4316,7 @@
         <v>44228</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>84</v>
@@ -4317,81 +4328,81 @@
         <v>194</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="24.75">
-      <c r="A78" s="26" t="s">
+    <row r="78" spans="1:11" ht="26" x14ac:dyDescent="0.2">
+      <c r="A78" s="25" t="s">
         <v>52</v>
       </c>
       <c r="B78" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D78" s="21">
+        <v>43983</v>
+      </c>
+      <c r="E78" s="21">
+        <v>44013</v>
+      </c>
+      <c r="F78" s="2" t="s">
         <v>237</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="D78" s="22">
-        <v>43983</v>
-      </c>
-      <c r="E78" s="22">
-        <v>44013</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>239</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="H78" s="23" t="s">
+      <c r="H78" s="22" t="s">
         <v>17</v>
       </c>
       <c r="I78" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="J78" s="24"/>
-      <c r="K78" s="25" t="s">
+      <c r="J78" s="23"/>
+      <c r="K78" s="24" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="117" x14ac:dyDescent="0.2">
+      <c r="A79" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D79" s="21">
+        <v>44207</v>
+      </c>
+      <c r="E79" s="21">
+        <v>44236</v>
+      </c>
+      <c r="F79" s="2" t="s">
         <v>240</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" ht="100.5">
-      <c r="A79" s="26" t="s">
-        <v>241</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="D79" s="22">
-        <v>44207</v>
-      </c>
-      <c r="E79" s="22">
-        <v>44236</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>242</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="H79" s="23" t="s">
+      <c r="H79" s="22" t="s">
         <v>17</v>
       </c>
       <c r="I79" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="J79" s="24"/>
-      <c r="K79" s="25" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" ht="50.25">
+      <c r="J79" s="23"/>
+      <c r="K79" s="24" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="52" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
         <v>128</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D80" s="7">
         <v>44013</v>
@@ -4400,7 +4411,7 @@
         <v>44043</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>84</v>
@@ -4409,21 +4420,21 @@
         <v>17</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="K80" s="27" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" ht="62.25">
+        <v>244</v>
+      </c>
+      <c r="K80" s="26" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="65" x14ac:dyDescent="0.2">
       <c r="A81" s="10" t="s">
         <v>88</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D81" s="7">
         <v>44282</v>
@@ -4432,7 +4443,7 @@
         <v>44312</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>84</v>
@@ -4441,23 +4452,23 @@
         <v>17</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="K81" s="27" t="s">
-        <v>247</v>
+        <v>244</v>
+      </c>
+      <c r="K81" s="26" t="s">
+        <v>245</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:AMJ77" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:AMJ81" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="K78" r:id="rId1" xr:uid="{E50469A8-A806-463D-9F06-1937853685B5}"/>
-    <hyperlink ref="K79" r:id="rId2" xr:uid="{EF73C97F-7BEF-4825-84DB-2EDCA1374E77}"/>
-    <hyperlink ref="K80" r:id="rId3" xr:uid="{BE951817-1159-45B1-924F-BA09AFC249AA}"/>
-    <hyperlink ref="K81" r:id="rId4" xr:uid="{90561608-69EF-4CEB-A4F1-BD13C27FCE5C}"/>
+    <hyperlink ref="K78" r:id="rId1" xr:uid="{EE1D7DBF-9E6A-AF49-9BD3-8857FFA40BCE}"/>
+    <hyperlink ref="K79" r:id="rId2" xr:uid="{2F51DA50-449A-FC48-BB18-9B3C2CFAD0A7}"/>
+    <hyperlink ref="K80" r:id="rId3" xr:uid="{FB33FDA4-60AC-E94F-90DA-1ACF5408D32E}"/>
+    <hyperlink ref="K81" r:id="rId4" xr:uid="{DC3BEE7A-2231-CB46-8C85-DE011159D343}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -4476,8 +4487,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006651BF32B521A046AF14BF632D6B295F" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e687cc8bfaac909e05f4176cb548ff64">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b67f489d-6419-4cb0-8238-506a3a8f1300" xmlns:ns3="0ce01a67-a604-4be1-a4ca-c8b766b5a068" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a69ac97e46fed597af44404b7c53e36d" ns2:_="" ns3:_="">
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006651BF32B521A046AF14BF632D6B295F" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8046e14dd018cfae75cc81c7bd54fa81">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b67f489d-6419-4cb0-8238-506a3a8f1300" xmlns:ns3="0ce01a67-a604-4be1-a4ca-c8b766b5a068" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f5a7cddc10e2d49b30e68da3672472c" ns2:_="" ns3:_="">
     <xsd:import namespace="b67f489d-6419-4cb0-8238-506a3a8f1300"/>
     <xsd:import namespace="0ce01a67-a604-4be1-a4ca-c8b766b5a068"/>
     <xsd:element name="properties">
@@ -4710,23 +4730,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AEFE1E48-AB7F-415E-BECC-E800467BC5F1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AEFE1E48-AB7F-415E-BECC-E800467BC5F1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b67f489d-6419-4cb0-8238-506a3a8f1300"/>
+    <ds:schemaRef ds:uri="0ce01a67-a604-4be1-a4ca-c8b766b5a068"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DA9DE7E9-55DE-4642-81FA-624A6B01CE03}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6391131E-6D5A-45B7-8B8B-A0B14230498B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6391131E-6D5A-45B7-8B8B-A0B14230498B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4551CD1-C6F7-4082-A738-A2A4B12C4D3B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b67f489d-6419-4cb0-8238-506a3a8f1300"/>
+    <ds:schemaRef ds:uri="0ce01a67-a604-4be1-a4ca-c8b766b5a068"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/xlsx/COVID_timeline.xlsx
+++ b/xlsx/COVID_timeline.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28816"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/john/Workspace/catalogue-mental-health/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D63A0D9-B5E0-0F48-AC47-E0B3F1F87B40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{7558838B-422C-1A4A-B68A-EB83102C7C06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD6C7B33-314D-4D8F-B2AB-3439E3F2F831}"/>
   <bookViews>
-    <workbookView xWindow="7620" yWindow="-28300" windowWidth="25600" windowHeight="28300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31620" yWindow="-28300" windowWidth="25600" windowHeight="28300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Covid Timeline" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Covid Timeline'!$A$2:$AMJ$2</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="248">
   <si>
     <t>COVID TIMELINE INFO</t>
   </si>
@@ -1108,6 +1108,9 @@
     <t>NICOLA: The Northern Ireland Longitudinal Study of Ageing</t>
   </si>
   <si>
+    <t>31/02/2021</t>
+  </si>
+  <si>
     <t>Generalised Anxiety Disorder Assessment (7-item) (GAD-7)
 Center for Epidemiologic Studies Depression Scale (CES-D)
 ONS4 Personal Wellbeing Questions
@@ -1199,7 +1202,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1726,32 +1729,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AMJ81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E74" sqref="E74"/>
+      <pane ySplit="2" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.95"/>
   <cols>
     <col min="1" max="1" width="29.5" style="10" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="18.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="14.83203125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="12.375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="14.875" style="7" customWidth="1"/>
     <col min="6" max="6" width="40.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="26.1640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="22.83203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="26.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="22.875" style="2" customWidth="1"/>
     <col min="9" max="9" width="37.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="33.6640625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="26.6640625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="10.83203125" style="4" customWidth="1"/>
-    <col min="13" max="27" width="10.83203125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="33.625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="26.625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="10.875" style="4" customWidth="1"/>
+    <col min="13" max="27" width="10.875" style="2" customWidth="1"/>
     <col min="1024" max="1024" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1024" ht="15.95" customHeight="1">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -1766,7 +1770,7 @@
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
     </row>
-    <row r="2" spans="1:1024" s="9" customFormat="1" ht="26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1024" s="9" customFormat="1" ht="26.1">
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
@@ -1818,7 +1822,7 @@
       <c r="AA2" s="1"/>
       <c r="AMJ2"/>
     </row>
-    <row r="3" spans="1:1024" ht="102" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1024" ht="102" hidden="1" customHeight="1">
       <c r="A3" s="10" t="s">
         <v>12</v>
       </c>
@@ -1853,7 +1857,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:1024" ht="95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1024" ht="95.1" hidden="1" customHeight="1">
       <c r="A4" s="10" t="s">
         <v>21</v>
       </c>
@@ -1888,7 +1892,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:1024" ht="117" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1024" ht="117" hidden="1" customHeight="1">
       <c r="A5" s="10" t="s">
         <v>24</v>
       </c>
@@ -1923,7 +1927,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:1024" ht="185" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1024" ht="185.1" hidden="1" customHeight="1">
       <c r="A6" s="10" t="s">
         <v>12</v>
       </c>
@@ -1958,7 +1962,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:1024" ht="158" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1024" ht="158.1" hidden="1" customHeight="1">
       <c r="A7" s="10" t="s">
         <v>35</v>
       </c>
@@ -1990,7 +1994,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:1024" ht="142" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1024" ht="141.94999999999999" hidden="1" customHeight="1">
       <c r="A8" s="10" t="s">
         <v>12</v>
       </c>
@@ -2025,7 +2029,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:1024" ht="110" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1024" ht="110.1" hidden="1" customHeight="1">
       <c r="A9" s="10" t="s">
         <v>35</v>
       </c>
@@ -2057,7 +2061,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:1024" ht="143" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1024" ht="143.1" hidden="1">
       <c r="A10" s="10" t="s">
         <v>21</v>
       </c>
@@ -2095,7 +2099,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:1024" ht="143" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1024" ht="143.1" hidden="1">
       <c r="A11" s="10" t="s">
         <v>49</v>
       </c>
@@ -2133,7 +2137,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:1024" ht="130" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1024" ht="129.94999999999999" hidden="1">
       <c r="A12" s="10" t="s">
         <v>24</v>
       </c>
@@ -2171,7 +2175,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:1024" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1024" ht="108" hidden="1" customHeight="1">
       <c r="A13" s="10" t="s">
         <v>52</v>
       </c>
@@ -2206,7 +2210,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:1024" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1024" ht="108" hidden="1" customHeight="1">
       <c r="A14" s="10" t="s">
         <v>24</v>
       </c>
@@ -2241,7 +2245,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:1024" ht="143" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1024" ht="143.1" hidden="1">
       <c r="A15" s="10" t="s">
         <v>21</v>
       </c>
@@ -2279,7 +2283,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:1024" ht="143" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1024" ht="143.1" hidden="1">
       <c r="A16" s="10" t="s">
         <v>49</v>
       </c>
@@ -2317,7 +2321,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="94" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="93.95" hidden="1" customHeight="1">
       <c r="A17" s="10" t="s">
         <v>24</v>
       </c>
@@ -2355,7 +2359,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="143" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="143.1" hidden="1">
       <c r="A18" s="10" t="s">
         <v>21</v>
       </c>
@@ -2393,7 +2397,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="143" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="143.1" hidden="1">
       <c r="A19" s="10" t="s">
         <v>49</v>
       </c>
@@ -2431,7 +2435,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="93" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="93" hidden="1" customHeight="1">
       <c r="A20" s="10" t="s">
         <v>24</v>
       </c>
@@ -2469,7 +2473,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="143" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="143.1" hidden="1">
       <c r="A21" s="10" t="s">
         <v>21</v>
       </c>
@@ -2507,7 +2511,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="143" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="143.1" hidden="1">
       <c r="A22" s="10" t="s">
         <v>49</v>
       </c>
@@ -2545,7 +2549,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="130" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="129.94999999999999" hidden="1">
       <c r="A23" s="10" t="s">
         <v>24</v>
       </c>
@@ -2583,7 +2587,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="143" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="143.1" hidden="1">
       <c r="A24" s="10" t="s">
         <v>21</v>
       </c>
@@ -2621,7 +2625,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="143" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="143.1" hidden="1">
       <c r="A25" s="10" t="s">
         <v>49</v>
       </c>
@@ -2659,7 +2663,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" ht="105" hidden="1" customHeight="1">
       <c r="A26" s="10" t="s">
         <v>24</v>
       </c>
@@ -2697,7 +2701,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="104" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" ht="104.1" hidden="1">
       <c r="A27" s="10" t="s">
         <v>12</v>
       </c>
@@ -2729,7 +2733,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="104" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" ht="104.1" hidden="1">
       <c r="A28" s="10" t="s">
         <v>52</v>
       </c>
@@ -2761,7 +2765,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="104" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" ht="104.1" hidden="1">
       <c r="A29" s="10" t="s">
         <v>35</v>
       </c>
@@ -2793,7 +2797,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="104" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" ht="104.1" hidden="1">
       <c r="A30" s="10" t="s">
         <v>88</v>
       </c>
@@ -2825,7 +2829,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="65" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" ht="65.099999999999994" hidden="1">
       <c r="A31" s="10" t="s">
         <v>12</v>
       </c>
@@ -2857,7 +2861,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="65" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" ht="65.099999999999994" hidden="1">
       <c r="A32" s="10" t="s">
         <v>88</v>
       </c>
@@ -2889,7 +2893,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="1:27" ht="104" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:27" ht="104.1" hidden="1">
       <c r="A33" s="10" t="s">
         <v>96</v>
       </c>
@@ -2921,7 +2925,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="34" spans="1:27" ht="104" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:27" ht="104.1" hidden="1">
       <c r="A34" s="10" t="s">
         <v>96</v>
       </c>
@@ -2953,7 +2957,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="35" spans="1:27" ht="104" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:27" ht="104.1" hidden="1">
       <c r="A35" s="10" t="s">
         <v>98</v>
       </c>
@@ -2985,7 +2989,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="36" spans="1:27" ht="104" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:27" ht="104.1" hidden="1">
       <c r="A36" s="10" t="s">
         <v>98</v>
       </c>
@@ -3017,7 +3021,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="37" spans="1:27" ht="104" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:27" ht="104.1" hidden="1">
       <c r="A37" s="10" t="s">
         <v>100</v>
       </c>
@@ -3049,7 +3053,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="38" spans="1:27" ht="104" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:27" ht="104.1" hidden="1">
       <c r="A38" s="10" t="s">
         <v>102</v>
       </c>
@@ -3081,7 +3085,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="39" spans="1:27" ht="91" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:27" ht="90.95" hidden="1">
       <c r="A39" s="10" t="s">
         <v>52</v>
       </c>
@@ -3116,7 +3120,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="40" spans="1:27" ht="91" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:27" ht="90.95" hidden="1">
       <c r="A40" s="10" t="s">
         <v>49</v>
       </c>
@@ -3151,7 +3155,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="41" spans="1:27" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:27" ht="68.099999999999994" hidden="1" customHeight="1">
       <c r="A41" s="10" t="s">
         <v>12</v>
       </c>
@@ -3186,7 +3190,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="42" spans="1:27" ht="143" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:27" ht="143.1" hidden="1">
       <c r="A42" s="10" t="s">
         <v>12</v>
       </c>
@@ -3218,7 +3222,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="43" spans="1:27" ht="143" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:27" ht="143.1" hidden="1">
       <c r="A43" s="10" t="s">
         <v>128</v>
       </c>
@@ -3250,7 +3254,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="44" spans="1:27" s="19" customFormat="1" ht="143" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:27" s="19" customFormat="1" ht="143.1" hidden="1">
       <c r="A44" s="14" t="s">
         <v>52</v>
       </c>
@@ -3299,7 +3303,7 @@
       <c r="Z44" s="16"/>
       <c r="AA44" s="16"/>
     </row>
-    <row r="45" spans="1:27" ht="247" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:27" ht="246.95" hidden="1">
       <c r="A45" s="10" t="s">
         <v>12</v>
       </c>
@@ -3334,7 +3338,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="46" spans="1:27" ht="130" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:27" ht="129.94999999999999" hidden="1">
       <c r="A46" s="10" t="s">
         <v>128</v>
       </c>
@@ -3369,7 +3373,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="47" spans="1:27" ht="195" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:27" ht="195" hidden="1">
       <c r="A47" s="10" t="s">
         <v>141</v>
       </c>
@@ -3404,7 +3408,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="48" spans="1:27" ht="182" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:27" ht="182.1" hidden="1">
       <c r="A48" s="10" t="s">
         <v>128</v>
       </c>
@@ -3437,7 +3441,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="182" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" ht="182.1" hidden="1">
       <c r="A49" s="10" t="s">
         <v>35</v>
       </c>
@@ -3467,7 +3471,7 @@
       </c>
       <c r="J49" s="8"/>
     </row>
-    <row r="50" spans="1:12" ht="182" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" ht="182.1" hidden="1">
       <c r="A50" s="10" t="s">
         <v>24</v>
       </c>
@@ -3497,7 +3501,7 @@
       </c>
       <c r="J50" s="8"/>
     </row>
-    <row r="51" spans="1:12" ht="143" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" ht="125.25">
       <c r="A51" s="10" t="s">
         <v>21</v>
       </c>
@@ -3535,7 +3539,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="143" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" ht="125.25">
       <c r="A52" s="10" t="s">
         <v>49</v>
       </c>
@@ -3573,7 +3577,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="130" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" ht="125.25">
       <c r="A53" s="10" t="s">
         <v>24</v>
       </c>
@@ -3611,7 +3615,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="118" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" ht="117.95" hidden="1" customHeight="1">
       <c r="A54" s="10" t="s">
         <v>21</v>
       </c>
@@ -3643,7 +3647,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="130" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" ht="129.94999999999999" hidden="1">
       <c r="A55" s="10" t="s">
         <v>12</v>
       </c>
@@ -3675,7 +3679,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="130" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" ht="129.94999999999999" hidden="1">
       <c r="A56" s="10" t="s">
         <v>128</v>
       </c>
@@ -3707,7 +3711,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="77" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" ht="77.099999999999994" hidden="1" customHeight="1">
       <c r="A57" s="10" t="s">
         <v>128</v>
       </c>
@@ -3742,7 +3746,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="404" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" ht="404.1" hidden="1">
       <c r="A58" s="10" t="s">
         <v>128</v>
       </c>
@@ -3774,7 +3778,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="39" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" ht="39" hidden="1">
       <c r="A59" s="10" t="s">
         <v>35</v>
       </c>
@@ -3803,7 +3807,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="78" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" ht="78" hidden="1">
       <c r="A60" s="11" t="s">
         <v>128</v>
       </c>
@@ -3832,7 +3836,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="65" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" ht="65.099999999999994" hidden="1">
       <c r="A61" s="10" t="s">
         <v>21</v>
       </c>
@@ -3861,7 +3865,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="78" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" ht="78" hidden="1">
       <c r="A62" s="10" t="s">
         <v>128</v>
       </c>
@@ -3890,7 +3894,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="91" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" ht="90.95" hidden="1">
       <c r="A63" s="10" t="s">
         <v>88</v>
       </c>
@@ -3919,7 +3923,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="65" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" ht="65.099999999999994" hidden="1">
       <c r="A64" s="10" t="s">
         <v>35</v>
       </c>
@@ -3948,7 +3952,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="130" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" ht="129.94999999999999" hidden="1">
       <c r="A65" s="10" t="s">
         <v>24</v>
       </c>
@@ -3977,7 +3981,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="208" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" ht="207.95" hidden="1">
       <c r="A66" s="10" t="s">
         <v>88</v>
       </c>
@@ -4006,7 +4010,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" hidden="1">
       <c r="A67" s="10" t="s">
         <v>205</v>
       </c>
@@ -4035,7 +4039,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="195" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" ht="195" hidden="1">
       <c r="A68" s="10" t="s">
         <v>207</v>
       </c>
@@ -4064,7 +4068,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="234" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" ht="234" hidden="1">
       <c r="A69" s="10" t="s">
         <v>88</v>
       </c>
@@ -4093,7 +4097,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="39" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" ht="39" hidden="1">
       <c r="A70" s="10" t="s">
         <v>49</v>
       </c>
@@ -4122,7 +4126,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="78" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" ht="78" hidden="1">
       <c r="A71" s="10" t="s">
         <v>49</v>
       </c>
@@ -4151,7 +4155,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="78" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" ht="78" hidden="1">
       <c r="A72" s="10" t="s">
         <v>216</v>
       </c>
@@ -4180,7 +4184,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="78" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" ht="75.75" hidden="1">
       <c r="A73" s="10" t="s">
         <v>12</v>
       </c>
@@ -4209,7 +4213,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="52" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" ht="51.95" hidden="1">
       <c r="A74" s="10" t="s">
         <v>221</v>
       </c>
@@ -4222,31 +4226,31 @@
       <c r="D74" s="7">
         <v>44228</v>
       </c>
-      <c r="E74" s="7">
-        <v>44255</v>
+      <c r="E74" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>84</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I74" s="2" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="52" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" ht="51.95" hidden="1">
       <c r="A75" s="10" t="s">
         <v>21</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D75" s="7">
         <v>43952</v>
@@ -4255,7 +4259,7 @@
         <v>43983</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>84</v>
@@ -4267,9 +4271,9 @@
         <v>194</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="195" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" ht="195" hidden="1">
       <c r="A76" s="10" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>134</v>
@@ -4284,13 +4288,13 @@
         <v>44348</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>84</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I76" s="2" t="s">
         <v>194</v>
@@ -4299,15 +4303,15 @@
         <v>138</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="26" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" ht="26.1" hidden="1">
       <c r="A77" s="10" t="s">
         <v>128</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D77" s="7">
         <v>44013</v>
@@ -4316,7 +4320,7 @@
         <v>44228</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>84</v>
@@ -4328,15 +4332,15 @@
         <v>194</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="26" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" ht="26.1" hidden="1">
       <c r="A78" s="25" t="s">
         <v>52</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D78" s="21">
         <v>43983</v>
@@ -4345,7 +4349,7 @@
         <v>44013</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>84</v>
@@ -4358,18 +4362,18 @@
       </c>
       <c r="J78" s="23"/>
       <c r="K78" s="24" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" ht="117" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="117" hidden="1">
       <c r="A79" s="25" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D79" s="21">
         <v>44207</v>
@@ -4378,7 +4382,7 @@
         <v>44236</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>84</v>
@@ -4391,18 +4395,18 @@
       </c>
       <c r="J79" s="23"/>
       <c r="K79" s="24" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" ht="52" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="51.95" hidden="1">
       <c r="A80" s="10" t="s">
         <v>128</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D80" s="7">
         <v>44013</v>
@@ -4411,7 +4415,7 @@
         <v>44043</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>84</v>
@@ -4420,21 +4424,21 @@
         <v>17</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K80" s="26" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" ht="65" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="65.099999999999994" hidden="1">
       <c r="A81" s="10" t="s">
         <v>88</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D81" s="7">
         <v>44282</v>
@@ -4443,7 +4447,7 @@
         <v>44312</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>84</v>
@@ -4452,14 +4456,20 @@
         <v>17</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K81" s="26" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:AMJ81" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:AMJ81" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="NS_LSYPE"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>
   </mergeCells>
@@ -4731,39 +4741,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AEFE1E48-AB7F-415E-BECC-E800467BC5F1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b67f489d-6419-4cb0-8238-506a3a8f1300"/>
-    <ds:schemaRef ds:uri="0ce01a67-a604-4be1-a4ca-c8b766b5a068"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AEFE1E48-AB7F-415E-BECC-E800467BC5F1}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6391131E-6D5A-45B7-8B8B-A0B14230498B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6391131E-6D5A-45B7-8B8B-A0B14230498B}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4551CD1-C6F7-4082-A738-A2A4B12C4D3B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b67f489d-6419-4cb0-8238-506a3a8f1300"/>
-    <ds:schemaRef ds:uri="0ce01a67-a604-4be1-a4ca-c8b766b5a068"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4551CD1-C6F7-4082-A738-A2A4B12C4D3B}"/>
 </file>